--- a/en/application_framework/application_framework/handlers/images/SessionStoreHandler/images.xlsx
+++ b/en/application_framework/application_framework/handlers/images/SessionStoreHandler/images.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A048A2-FD33-42EB-9EC8-4BF8BACE9D91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="14565"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="web" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,6 +93,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -113,7 +117,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="角丸四角形 18"/>
+        <xdr:cNvPr id="19" name="角丸四角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -145,11 +155,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>セッション変数保存ハンドラ</a:t>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Session Variable Store Handler</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -171,7 +182,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="角丸四角形 19"/>
+        <xdr:cNvPr id="20" name="角丸四角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -203,34 +220,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>クッキーからセッション</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>を取得</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Acquire session ID from the cookie</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -251,7 +247,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="角丸四角形 20"/>
+        <xdr:cNvPr id="21" name="角丸四角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -283,18 +285,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>後続ハンドラの呼び出し</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Call the subsequent handler</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -315,7 +312,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="20" idx="2"/>
           <a:endCxn id="26" idx="0"/>
@@ -365,7 +368,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="2"/>
           <a:endCxn id="28" idx="0"/>
@@ -415,7 +424,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="角丸四角形 23"/>
+        <xdr:cNvPr id="24" name="角丸四角形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -447,11 +462,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1300" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>後続ハンドラ</a:t>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Subsequent handler</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -473,7 +489,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="3"/>
           <a:endCxn id="24" idx="1"/>
@@ -523,7 +545,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="角丸四角形 25"/>
+        <xdr:cNvPr id="26" name="角丸四角形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -555,18 +583,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>セッション変数の読み込み</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Loading session variables</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -587,7 +610,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="26" idx="2"/>
           <a:endCxn id="21" idx="0"/>
@@ -637,7 +666,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="角丸四角形 27"/>
+        <xdr:cNvPr id="28" name="角丸四角形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -669,18 +704,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>セッション変数の保存</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Save session variables</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -701,7 +731,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="角丸四角形 28"/>
+        <xdr:cNvPr id="29" name="角丸四角形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -733,34 +769,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>セッション</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>をクッキーに設定</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Configure the session ID to cookie</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -781,7 +796,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="28" idx="2"/>
           <a:endCxn id="29" idx="0"/>
@@ -831,7 +852,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="角丸四角形 13"/>
+        <xdr:cNvPr id="14" name="角丸四角形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -863,26 +890,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>スレッド</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Thread 1</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -903,7 +917,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="角丸四角形 14"/>
+        <xdr:cNvPr id="15" name="角丸四角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -935,26 +955,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>スレッド</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Thread 2</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -975,7 +982,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="角丸四角形 15"/>
+        <xdr:cNvPr id="16" name="角丸四角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1007,18 +1020,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>セッションストア</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Session Store</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1039,7 +1047,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="14" idx="2"/>
           <a:endCxn id="32" idx="0"/>
@@ -1089,7 +1103,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="角丸四角形 31"/>
+        <xdr:cNvPr id="32" name="角丸四角形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1126,8 +1146,9 @@
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
             <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1149,7 +1170,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvPr id="6" name="角丸四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1183,10 +1210,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>session=1</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1207,7 +1236,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="6" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -1257,7 +1292,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="2"/>
           <a:endCxn id="35" idx="0"/>
@@ -1307,7 +1348,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="角丸四角形 34"/>
+        <xdr:cNvPr id="35" name="角丸四角形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1344,8 +1391,9 @@
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
             <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1367,7 +1415,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1415,7 +1469,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="角丸四角形 36"/>
+        <xdr:cNvPr id="37" name="角丸四角形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1447,78 +1507,52 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:rPr kumimoji="1" lang="en-US" sz="800">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>put session</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:rPr kumimoji="1" lang="en-US" sz="800">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>(key1,</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="800" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800">
+            <a:rPr kumimoji="1" lang="en-US" sz="800">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>値</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1)</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>value 1)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1539,7 +1573,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="角丸四角形 37"/>
+        <xdr:cNvPr id="38" name="角丸四角形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1571,9 +1611,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>put session</a:t>
           </a:r>
@@ -1581,37 +1622,29 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>(key2,</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>値</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>2)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>value 2)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1632,7 +1665,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="角丸四角形 38"/>
+        <xdr:cNvPr id="39" name="角丸四角形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1666,25 +1705,22 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>session=1</a:t>
           </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>key1=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>値</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>key1 = value 1</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1705,7 +1741,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線矢印コネクタ 39"/>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="39" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -1755,7 +1797,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="テキスト ボックス 42"/>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1790,14 +1838,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>load</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1818,7 +1864,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1853,14 +1905,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>load</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1881,7 +1931,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="テキスト ボックス 44"/>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1916,14 +1972,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>save</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1944,7 +1998,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="角丸四角形 45"/>
+        <xdr:cNvPr id="46" name="角丸四角形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1978,25 +2038,22 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>session=1</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>key2=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>値</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>key2 = value 2</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2017,7 +2074,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2065,7 +2128,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2100,14 +2169,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>save</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2128,7 +2195,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="雲形吹き出し 55"/>
+        <xdr:cNvPr id="56" name="雲形吹き出し 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2163,53 +2236,23 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>後勝ちとなるため、スレッド</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>のセッションの情報のみ保存される。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Only the information from the session in thread 2 will be saved as it is performed later. </a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>先に保存したスレッド</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>の情報は破棄される。</a:t>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Thread 1 information that was previously saved is discarded.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2220,7 +2263,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2262,7 +2305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2295,9 +2338,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2330,6 +2390,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2505,22 +2582,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="K40:AP55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="40" spans="11:30" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="11:30" ht="14.5" x14ac:dyDescent="0.2">
       <c r="Q40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="42" spans="11:30" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="11:30" ht="14.5" x14ac:dyDescent="0.2">
       <c r="K42" s="2"/>
       <c r="AD42" s="2"/>
     </row>
-    <row r="55" spans="42:42" x14ac:dyDescent="0.15">
+    <row r="55" spans="42:42" x14ac:dyDescent="0.2">
       <c r="AP55" s="3"/>
     </row>
   </sheetData>
